--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1510.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1510.xlsx
@@ -351,10 +351,10 @@
         <v>1.710638877836984</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.059398033051275</v>
